--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Infinite Number Line 4.xlsx_with_dialog_acts.xlsx
@@ -627,12 +627,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -742,12 +742,12 @@
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -970,12 +970,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1008,12 +1008,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1050,12 +1050,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1354,12 +1354,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1392,12 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2040,12 +2040,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3862,12 +3862,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4014,12 +4014,12 @@
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4740,12 +4740,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4816,12 +4816,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5044,12 +5044,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5272,12 +5272,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5310,12 +5310,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5992,12 +5992,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6454,12 +6454,12 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6800,12 +6800,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7108,12 +7108,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7260,12 +7260,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7722,12 +7722,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7836,12 +7836,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8026,12 +8026,12 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8102,12 +8102,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8254,12 +8254,12 @@
       <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9288,12 +9288,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9402,12 +9402,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9820,12 +9820,12 @@
       <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10474,12 +10474,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10702,12 +10702,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10968,12 +10968,12 @@
       <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11234,12 +11234,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11690,12 +11690,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11884,12 +11884,12 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12074,12 +12074,12 @@
       <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12496,12 +12496,12 @@
       <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
